--- a/shift/catalogs/transformer.xlsx
+++ b/shift/catalogs/transformer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDUWADI\Desktop\NREL_Projects\ciff_track_2\seeds_new\src\catalogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epohl\Desktop\Tunisia\Current_SHIFT\shift\catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7010F22-7A5B-489A-8129-0E13257B6446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF1F80-5923-4AB0-A946-CF765FC75A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{29C7D7BB-88F1-41CB-B3A1-64766359E738}"/>
+    <workbookView xWindow="-23640" yWindow="735" windowWidth="14400" windowHeight="7365" xr2:uid="{29C7D7BB-88F1-41CB-B3A1-64766359E738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>kva</t>
   </si>
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B20686D7-9792-45C9-972F-A05BE8DDEFB9}" name="kva"/>
     <tableColumn id="2" xr3:uid="{C8A18151-B747-44C6-A149-84F6E6E54700}" name="ht_kv"/>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2D58-E34E-47AD-A16B-ED81D500BB5A}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,6 +1179,29 @@
         <v>0.10879999999999999</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>50000</v>
+      </c>
+      <c r="B33">
+        <v>115</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F33">
+        <v>7.5</v>
+      </c>
+      <c r="G33">
+        <v>0.10879999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/shift/catalogs/transformer.xlsx
+++ b/shift/catalogs/transformer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epohl\Desktop\Tunisia\Current_SHIFT\shift\catalogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDUWADI\Desktop\NREL_Projects\ciff_track_2\seeds_new\src\catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF1F80-5923-4AB0-A946-CF765FC75A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7010F22-7A5B-489A-8129-0E13257B6446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23640" yWindow="735" windowWidth="14400" windowHeight="7365" xr2:uid="{29C7D7BB-88F1-41CB-B3A1-64766359E738}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{29C7D7BB-88F1-41CB-B3A1-64766359E738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>kva</t>
   </si>
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}" name="Table1" displayName="Table1" ref="A1:G33" totalsRowShown="0">
-  <autoFilter ref="A1:G33" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32" xr:uid="{F2979FCA-A639-4FBF-AD95-B024D3A0C1C3}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B20686D7-9792-45C9-972F-A05BE8DDEFB9}" name="kva"/>
     <tableColumn id="2" xr3:uid="{C8A18151-B747-44C6-A149-84F6E6E54700}" name="ht_kv"/>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2D58-E34E-47AD-A16B-ED81D500BB5A}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,29 +1179,6 @@
         <v>0.10879999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>50000</v>
-      </c>
-      <c r="B33">
-        <v>115</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="F33">
-        <v>7.5</v>
-      </c>
-      <c r="G33">
-        <v>0.10879999999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
